--- a/过滤/过滤拟合数据.xlsx
+++ b/过滤/过滤拟合数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\spyNow\化工原理实验\过滤\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A29E9B-BA8F-42A2-AE51-86EC4DDE8F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB1F3BD-8EA6-4C9A-A463-617B9F405317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C9A431DA-AD6E-4305-8A7A-EFECAA342FA5}"/>
+    <workbookView xWindow="4500" yWindow="2208" windowWidth="17280" windowHeight="9420" xr2:uid="{C9A431DA-AD6E-4305-8A7A-EFECAA342FA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,14 +154,14 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,7 +480,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -489,24 +489,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -530,12 +530,12 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -551,7 +551,7 @@
         <v>734.17319500317603</v>
       </c>
       <c r="E4" s="5">
-        <v>0</v>
+        <v>9.9431599999999995E-3</v>
       </c>
       <c r="F4" s="5">
         <v>454.58395087867802</v>
@@ -574,7 +574,7 @@
         <v>1056.50539911073</v>
       </c>
       <c r="E5" s="5">
-        <v>9.9431599999999995E-3</v>
+        <v>2.9829499999999998E-2</v>
       </c>
       <c r="F5" s="5">
         <v>837.76201566800705</v>
@@ -597,7 +597,7 @@
         <v>1454.2663561295701</v>
       </c>
       <c r="E6" s="5">
-        <v>2.9829499999999998E-2</v>
+        <v>4.9715799999999997E-2</v>
       </c>
       <c r="F6" s="5">
         <v>1158.5856447173401</v>
@@ -620,7 +620,7 @@
         <v>1517.6265085750499</v>
       </c>
       <c r="E7" s="5">
-        <v>4.9715799999999997E-2</v>
+        <v>6.96021E-2</v>
       </c>
       <c r="F7" s="5">
         <v>1267.7059072623299</v>
@@ -643,7 +643,7 @@
         <v>2061.7192462417902</v>
       </c>
       <c r="E8" s="5">
-        <v>6.96021E-2</v>
+        <v>8.9488399999999996E-2</v>
       </c>
       <c r="F8" s="5">
         <v>1639.3182299385901</v>
@@ -666,7 +666,7 @@
         <v>2407.18293457548</v>
       </c>
       <c r="E9" s="5">
-        <v>8.9488399999999996E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="F9" s="5">
         <v>1746.4270590726201</v>
@@ -689,7 +689,7 @@
         <v>2715.4351048062599</v>
       </c>
       <c r="E10" s="5">
-        <v>0.109375</v>
+        <v>0.12926099999999999</v>
       </c>
       <c r="F10" s="5">
         <v>2053.1706542451798</v>
@@ -712,7 +712,7 @@
         <v>2970.3842896463998</v>
       </c>
       <c r="E11" s="5">
-        <v>0.12926099999999999</v>
+        <v>0.149147</v>
       </c>
       <c r="F11" s="5">
         <v>2204.53101842049</v>
@@ -735,7 +735,7 @@
         <v>4247.6445056108396</v>
       </c>
       <c r="E12" s="5">
-        <v>0.149147</v>
+        <v>0.16903399999999999</v>
       </c>
       <c r="F12" s="5">
         <v>2765.72094008045</v>
@@ -758,7 +758,7 @@
         <v>21719.960829980901</v>
       </c>
       <c r="E13" s="5">
-        <v>0.16903399999999999</v>
+        <v>0.18892</v>
       </c>
       <c r="F13" s="5">
         <v>6064.9745924200697</v>
